--- a/models/SCSM.xlsx
+++ b/models/SCSM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes_documents\a_ABSys\DIGITAF\WP2farmers\task2.2_treecropperformance\DigitAFtreeAdvice\Rdatapreparation\alldatabases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes_documents\a_ABSys\DIGITAF\WP2farmers\task2.2_treecropperformance\DigitAFtreeAdvice\agroforestreeadvice\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="dataSCSM" localSheetId="0">data!$A$1:$S$444</definedName>
-    <definedName name="interfaceSCSM" localSheetId="1">interface!$A$1:$V$50</definedName>
+    <definedName name="interfaceSCSM" localSheetId="1">interface!$A$1:$S$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7216" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7216" uniqueCount="1620">
   <si>
     <t>numberinit</t>
   </si>
@@ -3918,15 +3918,6 @@
     <t>choice_en</t>
   </si>
   <si>
-    <t>BigCriteria_es</t>
-  </si>
-  <si>
-    <t>criteria_es</t>
-  </si>
-  <si>
-    <t>choice_es</t>
-  </si>
-  <si>
     <t>BigCriteria_nl</t>
   </si>
   <si>
@@ -4219,6 +4210,723 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>BigCriteria_cz</t>
+  </si>
+  <si>
+    <t>criteria_cz</t>
+  </si>
+  <si>
+    <t>choice_cz</t>
+  </si>
+  <si>
+    <t>Klima</t>
+  </si>
+  <si>
+    <t>Ernährung</t>
+  </si>
+  <si>
+    <t>Holz</t>
+  </si>
+  <si>
+    <t>Futtermittel oder Futtermittel</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>Klimaregulierung</t>
+  </si>
+  <si>
+    <t>Fruchtbarkeit des Bodens</t>
+  </si>
+  <si>
+    <t>Fasern und andere Materialien</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>Lebenserwartung</t>
+  </si>
+  <si>
+    <t>Klimaat</t>
+  </si>
+  <si>
+    <t>Voeding</t>
+  </si>
+  <si>
+    <t>Hout</t>
+  </si>
+  <si>
+    <t>Voer</t>
+  </si>
+  <si>
+    <t>Klimaatregeling</t>
+  </si>
+  <si>
+    <t>Bodemvruchtbaarheid</t>
+  </si>
+  <si>
+    <t>Vezels en andere materialen</t>
+  </si>
+  <si>
+    <t>Grootte</t>
+  </si>
+  <si>
+    <t>Levensduur</t>
+  </si>
+  <si>
+    <t>Climat</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>Aliments pour animaux ou fourrage</t>
+  </si>
+  <si>
+    <t>Régulation du climat</t>
+  </si>
+  <si>
+    <t>Fertilité des sols</t>
+  </si>
+  <si>
+    <t>Fibres et autres matériaux</t>
+  </si>
+  <si>
+    <t>Taille</t>
+  </si>
+  <si>
+    <t>Durée de vie</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Podnebí</t>
+  </si>
+  <si>
+    <t>Výživa</t>
+  </si>
+  <si>
+    <t>Dřevo</t>
+  </si>
+  <si>
+    <t>Krmivo nebo píce</t>
+  </si>
+  <si>
+    <t>Regulace klimatu</t>
+  </si>
+  <si>
+    <t>Úrodnost půdy</t>
+  </si>
+  <si>
+    <t>Vlákna a další materiály</t>
+  </si>
+  <si>
+    <t>Vlákna a jiné materiály</t>
+  </si>
+  <si>
+    <t>Velikost</t>
+  </si>
+  <si>
+    <t>Životnost</t>
+  </si>
+  <si>
+    <t>Délka života</t>
+  </si>
+  <si>
+    <t>Teplota</t>
+  </si>
+  <si>
+    <t>Srážky</t>
+  </si>
+  <si>
+    <t>Komunální služby</t>
+  </si>
+  <si>
+    <t>Nástroje</t>
+  </si>
+  <si>
+    <t>Formulář</t>
+  </si>
+  <si>
+    <t>Výška (nepoužívá se, pokud dáváte přednost tomuto formátu, sdělte to prosím Marii)</t>
+  </si>
+  <si>
+    <t>Výška (nepoužívá se, sdělte prosím Marii, zda dáváte přednost tomuto formátu)</t>
+  </si>
+  <si>
+    <t>Životní šířka (nepoužívá se, sdělte prosím Marii, zda dáváte přednost tomuto formátu)</t>
+  </si>
+  <si>
+    <t>délka života (nepoužívá se, sdělte prosím Marii, zda dáváte přednost tomuto formátu)</t>
+  </si>
+  <si>
+    <t>životnost (nepoužívá se, sdělte prosím Marii, zda dáváte přednost tomuto formátu)</t>
+  </si>
+  <si>
+    <t>životnost</t>
+  </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t>Niederschlag</t>
+  </si>
+  <si>
+    <t>Versorgungsunternehmen</t>
+  </si>
+  <si>
+    <t>Dienstprogramme</t>
+  </si>
+  <si>
+    <t>Formular</t>
+  </si>
+  <si>
+    <t>Höhe (nicht verwendet, bitte teilen Sie Marie mit, ob Sie dieses Format bevorzugen)</t>
+  </si>
+  <si>
+    <t>Lebensdauer (nicht verwendet, bitte teilen Sie Marie mit, wenn Sie dieses Format bevorzugen)</t>
+  </si>
+  <si>
+    <t>Lebensspanne</t>
+  </si>
+  <si>
+    <t>Höhe</t>
+  </si>
+  <si>
+    <t>Température</t>
+  </si>
+  <si>
+    <t>Précipitations</t>
+  </si>
+  <si>
+    <t>Taille (non utilisé, veuillez indiquer à Marie si vous préférez ce format)</t>
+  </si>
+  <si>
+    <t>durée de vie (non utilisé, veuillez indiquer à Marie si vous préférez ce format)</t>
+  </si>
+  <si>
+    <t>durée de vie</t>
+  </si>
+  <si>
+    <t>Utilisation</t>
+  </si>
+  <si>
+    <t>Forme</t>
+  </si>
+  <si>
+    <t>Temperatuur</t>
+  </si>
+  <si>
+    <t>Neerslag</t>
+  </si>
+  <si>
+    <t>Nutsvoorzieningen</t>
+  </si>
+  <si>
+    <t>Hulpprogramma's</t>
+  </si>
+  <si>
+    <t>Vorm</t>
+  </si>
+  <si>
+    <t>Formulier</t>
+  </si>
+  <si>
+    <t>Lengte (niet gebruikt, laat Marie weten als je dit formaat verkiest)</t>
+  </si>
+  <si>
+    <t>levensduur (niet gebruikt, vertel Marie als u liever in dit formaat)</t>
+  </si>
+  <si>
+    <t>levensduur</t>
+  </si>
+  <si>
+    <t>Lengte</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Voedsel</t>
+  </si>
+  <si>
+    <t>Kruiden</t>
+  </si>
+  <si>
+    <t>Voeder</t>
+  </si>
+  <si>
+    <t>Biomassa</t>
+  </si>
+  <si>
+    <t>Schaduw</t>
+  </si>
+  <si>
+    <t>Stikstof</t>
+  </si>
+  <si>
+    <t>Vezel</t>
+  </si>
+  <si>
+    <t>Medicinaal</t>
+  </si>
+  <si>
+    <t>Olie</t>
+  </si>
+  <si>
+    <t>Gom</t>
+  </si>
+  <si>
+    <t>Elke vorm</t>
+  </si>
+  <si>
+    <t>bamboe</t>
+  </si>
+  <si>
+    <t>reuzenkruid</t>
+  </si>
+  <si>
+    <t>gras</t>
+  </si>
+  <si>
+    <t>kruid</t>
+  </si>
+  <si>
+    <t>struik</t>
+  </si>
+  <si>
+    <t>vetplant</t>
+  </si>
+  <si>
+    <t>boom</t>
+  </si>
+  <si>
+    <t>wingerd</t>
+  </si>
+  <si>
+    <t>Elke hoogte</t>
+  </si>
+  <si>
+    <t>minder dan 1 m</t>
+  </si>
+  <si>
+    <t>1 tot minder dan 2 m</t>
+  </si>
+  <si>
+    <t>2 tot minder dan 4 m</t>
+  </si>
+  <si>
+    <t>4 tot minder dan 8 m</t>
+  </si>
+  <si>
+    <t>8 tot minder dan 16 m</t>
+  </si>
+  <si>
+    <t>16 tot minder dan 30 m</t>
+  </si>
+  <si>
+    <t>30 tot 60 m</t>
+  </si>
+  <si>
+    <t>meer dan 60 m</t>
+  </si>
+  <si>
+    <t>Eenjarige plant</t>
+  </si>
+  <si>
+    <t>Halfjaarlijkse plant</t>
+  </si>
+  <si>
+    <t>2 tot 5 jaar</t>
+  </si>
+  <si>
+    <t>5 tot 10 jaar</t>
+  </si>
+  <si>
+    <t>10 tot 20 jaar</t>
+  </si>
+  <si>
+    <t>20 tot 40 jaar</t>
+  </si>
+  <si>
+    <t>40 tot 100 jaar</t>
+  </si>
+  <si>
+    <t>80 tot 200 jaar</t>
+  </si>
+  <si>
+    <t>200 tot 1000 jaar</t>
+  </si>
+  <si>
+    <t>meer dan 1000 jaar</t>
+  </si>
+  <si>
+    <t>Nourriture</t>
+  </si>
+  <si>
+    <t>Épices</t>
+  </si>
+  <si>
+    <t>Bois de construction</t>
+  </si>
+  <si>
+    <t>Biomasse</t>
+  </si>
+  <si>
+    <t>Ombrage</t>
+  </si>
+  <si>
+    <t>Azote</t>
+  </si>
+  <si>
+    <t>Fibre</t>
+  </si>
+  <si>
+    <t>Médicinale</t>
+  </si>
+  <si>
+    <t>Huile</t>
+  </si>
+  <si>
+    <t>Gomme</t>
+  </si>
+  <si>
+    <t>Toute forme</t>
+  </si>
+  <si>
+    <t>bambou</t>
+  </si>
+  <si>
+    <t>herbe géante</t>
+  </si>
+  <si>
+    <t>herbe</t>
+  </si>
+  <si>
+    <t>palmier</t>
+  </si>
+  <si>
+    <t>arbuste</t>
+  </si>
+  <si>
+    <t>arbre</t>
+  </si>
+  <si>
+    <t>vigne</t>
+  </si>
+  <si>
+    <t>Toute hauteur</t>
+  </si>
+  <si>
+    <t>moins de 1 m</t>
+  </si>
+  <si>
+    <t>1 à moins de 2 m</t>
+  </si>
+  <si>
+    <t>2 à moins de 4 m</t>
+  </si>
+  <si>
+    <t>4 à moins de 8 m</t>
+  </si>
+  <si>
+    <t>8 à moins de 16 m</t>
+  </si>
+  <si>
+    <t>16 à moins de 30 m</t>
+  </si>
+  <si>
+    <t>30 à 60 m</t>
+  </si>
+  <si>
+    <t>plus de 60 m</t>
+  </si>
+  <si>
+    <t>Toute durée de vie</t>
+  </si>
+  <si>
+    <t>Plante annuelle</t>
+  </si>
+  <si>
+    <t>Plante bisannuelle</t>
+  </si>
+  <si>
+    <t>2 à 5 ans</t>
+  </si>
+  <si>
+    <t>5 à 10 ans</t>
+  </si>
+  <si>
+    <t>10 à 20 ans</t>
+  </si>
+  <si>
+    <t>20 à 40 ans</t>
+  </si>
+  <si>
+    <t>40 à 100 ans</t>
+  </si>
+  <si>
+    <t>80 à 200 ans</t>
+  </si>
+  <si>
+    <t>200 à 1000 ans</t>
+  </si>
+  <si>
+    <t>plus de 1000 ans</t>
+  </si>
+  <si>
+    <t>Toute utilisation</t>
+  </si>
+  <si>
+    <t>Jeder Nutzen</t>
+  </si>
+  <si>
+    <t>Lebensmittel</t>
+  </si>
+  <si>
+    <t>Gewürze</t>
+  </si>
+  <si>
+    <t>Futter oder Futtermittel</t>
+  </si>
+  <si>
+    <t>Schatten</t>
+  </si>
+  <si>
+    <t>Stickstoff</t>
+  </si>
+  <si>
+    <t>Faser</t>
+  </si>
+  <si>
+    <t>Medizinisch</t>
+  </si>
+  <si>
+    <t>Öl</t>
+  </si>
+  <si>
+    <t>Kaugummi</t>
+  </si>
+  <si>
+    <t>Jede Form</t>
+  </si>
+  <si>
+    <t>Bambus</t>
+  </si>
+  <si>
+    <t>Kaktus</t>
+  </si>
+  <si>
+    <t>Riesenwurzel</t>
+  </si>
+  <si>
+    <t>Gras</t>
+  </si>
+  <si>
+    <t>Kraut</t>
+  </si>
+  <si>
+    <t>Palme</t>
+  </si>
+  <si>
+    <t>Strauch</t>
+  </si>
+  <si>
+    <t>Sukkulente</t>
+  </si>
+  <si>
+    <t>Baum</t>
+  </si>
+  <si>
+    <t>Weinstock</t>
+  </si>
+  <si>
+    <t>Jede Höhe</t>
+  </si>
+  <si>
+    <t>weniger als 1 m</t>
+  </si>
+  <si>
+    <t>1 bis weniger als 2 m</t>
+  </si>
+  <si>
+    <t>2 bis weniger als 4 m</t>
+  </si>
+  <si>
+    <t>4 bis weniger als 8 m</t>
+  </si>
+  <si>
+    <t>8 bis weniger als 16 m</t>
+  </si>
+  <si>
+    <t>16 bis weniger als 30 m</t>
+  </si>
+  <si>
+    <t>30 bis 60 m</t>
+  </si>
+  <si>
+    <t>mehr als 60 m</t>
+  </si>
+  <si>
+    <t>Beliebige Lebensdauer</t>
+  </si>
+  <si>
+    <t>Einjährige Pflanze</t>
+  </si>
+  <si>
+    <t>Zweijährige Pflanze</t>
+  </si>
+  <si>
+    <t>2 bis 5 Jahre</t>
+  </si>
+  <si>
+    <t>5 bis 10 Jahre</t>
+  </si>
+  <si>
+    <t>10 bis 20 Jahre</t>
+  </si>
+  <si>
+    <t>20 bis 40 Jahre</t>
+  </si>
+  <si>
+    <t>40 bis 100 Jahre</t>
+  </si>
+  <si>
+    <t>80 bis 200 Jahre</t>
+  </si>
+  <si>
+    <t>200 bis 1000 Jahre</t>
+  </si>
+  <si>
+    <t>mehr als 1000 Jahre</t>
+  </si>
+  <si>
+    <t>Jakýkoli užitek</t>
+  </si>
+  <si>
+    <t>Potraviny</t>
+  </si>
+  <si>
+    <t>Koření</t>
+  </si>
+  <si>
+    <t>Biomasa</t>
+  </si>
+  <si>
+    <t>Stín</t>
+  </si>
+  <si>
+    <t>Dusík</t>
+  </si>
+  <si>
+    <t>Vlákno</t>
+  </si>
+  <si>
+    <t>Léčivé</t>
+  </si>
+  <si>
+    <t>Olej</t>
+  </si>
+  <si>
+    <t>Guma</t>
+  </si>
+  <si>
+    <t>Jakákoli forma</t>
+  </si>
+  <si>
+    <t>bambus</t>
+  </si>
+  <si>
+    <t>kaktus</t>
+  </si>
+  <si>
+    <t>obří bylinka</t>
+  </si>
+  <si>
+    <t>tráva</t>
+  </si>
+  <si>
+    <t>bylina</t>
+  </si>
+  <si>
+    <t>palma</t>
+  </si>
+  <si>
+    <t>keř</t>
+  </si>
+  <si>
+    <t>sukulentní</t>
+  </si>
+  <si>
+    <t>strom</t>
+  </si>
+  <si>
+    <t>vinná réva</t>
+  </si>
+  <si>
+    <t>Jakákoli výška</t>
+  </si>
+  <si>
+    <t>menší než 1 m</t>
+  </si>
+  <si>
+    <t>1 až méně než 2 m</t>
+  </si>
+  <si>
+    <t>2 až méně než 4 m</t>
+  </si>
+  <si>
+    <t>4 až méně než 8 m</t>
+  </si>
+  <si>
+    <t>8 až méně než 16 m</t>
+  </si>
+  <si>
+    <t>16 až méně než 30 m</t>
+  </si>
+  <si>
+    <t>30 až 60 m</t>
+  </si>
+  <si>
+    <t>více než 60 m</t>
+  </si>
+  <si>
+    <t>Jakákoli životnost</t>
+  </si>
+  <si>
+    <t>Roční rostlina</t>
+  </si>
+  <si>
+    <t>Dvouletá rostlina</t>
+  </si>
+  <si>
+    <t>2 až 5 let</t>
+  </si>
+  <si>
+    <t>5 až 10 let</t>
+  </si>
+  <si>
+    <t>10 až 20 let</t>
+  </si>
+  <si>
+    <t>20 až 40 let</t>
+  </si>
+  <si>
+    <t>40 až 100 let</t>
+  </si>
+  <si>
+    <t>80 až 200 let</t>
+  </si>
+  <si>
+    <t>200 až 1000 let</t>
+  </si>
+  <si>
+    <t>více než 1000 let</t>
   </si>
 </sst>
 </file>
@@ -30776,32 +31484,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.77734375" customWidth="1"/>
+    <col min="8" max="19" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -30863,18 +31555,18 @@
         <v>1291</v>
       </c>
       <c r="T1" t="s">
-        <v>1292</v>
+        <v>1381</v>
       </c>
       <c r="U1" t="s">
-        <v>1293</v>
+        <v>1382</v>
       </c>
       <c r="V1" t="s">
-        <v>1294</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -30883,66 +31575,66 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I2" t="s">
         <v>1296</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>1296</v>
       </c>
-      <c r="F2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1299</v>
-      </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>1394</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>1450</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>1403</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>1443</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>1443</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>1384</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>1434</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>1434</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>1384</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>1423</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -30951,140 +31643,140 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I3" t="s">
         <v>1298</v>
       </c>
-      <c r="I3" t="s">
-        <v>1301</v>
-      </c>
       <c r="J3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>1394</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>1451</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>1451</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>1403</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>1444</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>1444</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>1384</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>1435</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>1435</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>1412</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>1424</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I4" t="s">
         <v>1304</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>1305</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1308</v>
-      </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>1395</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>1452</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>1460</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>1411</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>1537</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>1385</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>1436</v>
       </c>
       <c r="S4" t="s">
-        <v>29</v>
+        <v>1538</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>1413</v>
       </c>
       <c r="U4" t="s">
-        <v>29</v>
+        <v>1425</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -31093,66 +31785,66 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
       </c>
       <c r="H5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J5" t="s">
         <v>1306</v>
       </c>
-      <c r="I5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1309</v>
-      </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>1395</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>1461</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>1411</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>1499</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>1385</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>1539</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>1413</v>
       </c>
       <c r="U5" t="s">
-        <v>29</v>
+        <v>1425</v>
       </c>
       <c r="V5" t="s">
-        <v>29</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -31161,60 +31853,60 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J6" t="s">
         <v>1307</v>
       </c>
-      <c r="J6" t="s">
-        <v>1310</v>
-      </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>1395</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>1462</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>1411</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>1385</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>1540</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>1413</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>1425</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -31229,66 +31921,66 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I7" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J7" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>1396</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>1396</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>1404</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>1501</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>1386</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>1386</v>
       </c>
       <c r="T7" t="s">
-        <v>29</v>
+        <v>1414</v>
       </c>
       <c r="U7" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V7" t="s">
-        <v>29</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -31297,66 +31989,66 @@
         <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="I8" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J8" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>1397</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>1452</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>1463</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>1405</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>1405</v>
       </c>
       <c r="Q8" t="s">
-        <v>29</v>
+        <v>1387</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>1436</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
+        <v>1541</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>1415</v>
       </c>
       <c r="U8" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -31365,134 +32057,134 @@
         <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I9" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J9" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>1388</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>1464</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>1388</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>1502</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>1388</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>1502</v>
       </c>
       <c r="T9" t="s">
-        <v>29</v>
+        <v>1388</v>
       </c>
       <c r="U9" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V9" t="s">
-        <v>29</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="F10" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I10" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J10" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>1398</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>1465</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>1406</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P10" t="s">
-        <v>29</v>
+        <v>1503</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>1389</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S10" t="s">
-        <v>29</v>
+        <v>1542</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>1416</v>
       </c>
       <c r="U10" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V10" t="s">
-        <v>29</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -31501,66 +32193,66 @@
         <v>651</v>
       </c>
       <c r="F11" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I11" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J11" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>1399</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>1466</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>1407</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P11" t="s">
-        <v>29</v>
+        <v>1504</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>1390</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>1543</v>
       </c>
       <c r="T11" t="s">
-        <v>29</v>
+        <v>1417</v>
       </c>
       <c r="U11" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -31569,66 +32261,66 @@
         <v>916</v>
       </c>
       <c r="F12" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I12" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J12" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>1467</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>1408</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P12" t="s">
-        <v>29</v>
+        <v>1505</v>
       </c>
       <c r="Q12" t="s">
-        <v>29</v>
+        <v>1391</v>
       </c>
       <c r="R12" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S12" t="s">
-        <v>29</v>
+        <v>1544</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>1418</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V12" t="s">
-        <v>29</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -31637,66 +32329,66 @@
         <v>905</v>
       </c>
       <c r="F13" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I13" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J13" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>1400</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>1468</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>1408</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>1506</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>1391</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>1545</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>1419</v>
       </c>
       <c r="U13" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -31705,66 +32397,66 @@
         <v>1268</v>
       </c>
       <c r="F14" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I14" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J14" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>1395</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>1469</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>1411</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P14" t="s">
-        <v>29</v>
+        <v>1507</v>
       </c>
       <c r="Q14" t="s">
-        <v>29</v>
+        <v>1385</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>1546</v>
       </c>
       <c r="T14" t="s">
-        <v>29</v>
+        <v>1413</v>
       </c>
       <c r="U14" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V14" t="s">
-        <v>29</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -31773,134 +32465,134 @@
         <v>1090</v>
       </c>
       <c r="F15" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I15" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J15" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>1400</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>1453</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>1470</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>1408</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>1448</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>1508</v>
       </c>
       <c r="Q15" t="s">
-        <v>29</v>
+        <v>1391</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>1437</v>
       </c>
       <c r="S15" t="s">
-        <v>29</v>
+        <v>1547</v>
       </c>
       <c r="T15" t="s">
-        <v>29</v>
+        <v>1419</v>
       </c>
       <c r="U15" t="s">
-        <v>29</v>
+        <v>1426</v>
       </c>
       <c r="V15" t="s">
-        <v>29</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I16" t="s">
         <v>1331</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>1332</v>
       </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1335</v>
-      </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>1471</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P16" t="s">
-        <v>29</v>
+        <v>1509</v>
       </c>
       <c r="Q16" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>1548</v>
       </c>
       <c r="T16" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U16" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -31909,66 +32601,66 @@
         <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I17" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J17" t="s">
         <v>210</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>1472</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
+        <v>1510</v>
       </c>
       <c r="Q17" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S17" t="s">
-        <v>29</v>
+        <v>1549</v>
       </c>
       <c r="T17" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U17" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -31977,66 +32669,66 @@
         <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I18" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J18" t="s">
         <v>230</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="Q18" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S18" t="s">
-        <v>29</v>
+        <v>1550</v>
       </c>
       <c r="T18" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U18" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V18" t="s">
-        <v>29</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -32045,66 +32737,66 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I19" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>1473</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
+        <v>1511</v>
       </c>
       <c r="Q19" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S19" t="s">
-        <v>29</v>
+        <v>1551</v>
       </c>
       <c r="T19" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V19" t="s">
-        <v>29</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -32113,66 +32805,66 @@
         <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I20" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J20" t="s">
         <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>1455</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>1474</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O20" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>1512</v>
       </c>
       <c r="Q20" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R20" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>1552</v>
       </c>
       <c r="T20" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U20" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V20" t="s">
-        <v>29</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -32181,66 +32873,66 @@
         <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I21" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J21" t="s">
         <v>77</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>1475</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
+        <v>1512</v>
       </c>
       <c r="Q21" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R21" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S21" t="s">
-        <v>29</v>
+        <v>1553</v>
       </c>
       <c r="T21" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U21" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V21" t="s">
-        <v>29</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -32249,66 +32941,66 @@
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I22" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J22" t="s">
         <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>1513</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R22" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>1554</v>
       </c>
       <c r="T22" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U22" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V22" t="s">
-        <v>29</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -32317,66 +33009,66 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I23" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J23" t="s">
         <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>1476</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>1514</v>
       </c>
       <c r="Q23" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R23" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S23" t="s">
-        <v>29</v>
+        <v>1555</v>
       </c>
       <c r="T23" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U23" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V23" t="s">
-        <v>29</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -32385,66 +33077,66 @@
         <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I24" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J24" t="s">
         <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>1477</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P24" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="Q24" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R24" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S24" t="s">
-        <v>29</v>
+        <v>1556</v>
       </c>
       <c r="T24" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U24" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -32453,66 +33145,66 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I25" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J25" t="s">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>1454</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>1478</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O25" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P25" t="s">
-        <v>29</v>
+        <v>1515</v>
       </c>
       <c r="Q25" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R25" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>1557</v>
       </c>
       <c r="T25" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U25" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V25" t="s">
-        <v>29</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -32521,672 +33213,672 @@
         <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I26" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="J26" t="s">
         <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>1455</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>1479</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>1449</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>1516</v>
       </c>
       <c r="Q26" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R26" t="s">
-        <v>29</v>
+        <v>1438</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
+        <v>1558</v>
       </c>
       <c r="T26" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U26" t="s">
-        <v>29</v>
+        <v>1427</v>
       </c>
       <c r="V26" t="s">
-        <v>29</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
         <v>1330</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J27" t="s">
         <v>1336</v>
       </c>
-      <c r="E27" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1339</v>
-      </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>1480</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O27" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
+        <v>1517</v>
       </c>
       <c r="Q27" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R27" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S27" t="s">
-        <v>29</v>
+        <v>1559</v>
       </c>
       <c r="T27" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U27" t="s">
-        <v>29</v>
+        <v>1428</v>
       </c>
       <c r="V27" t="s">
-        <v>29</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
         <v>1330</v>
       </c>
-      <c r="D28" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1333</v>
-      </c>
       <c r="I28" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J28" t="s">
         <v>1338</v>
       </c>
-      <c r="J28" t="s">
-        <v>1341</v>
-      </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>1481</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O28" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P28" t="s">
-        <v>29</v>
+        <v>1518</v>
       </c>
       <c r="Q28" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R28" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>1560</v>
       </c>
       <c r="T28" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U28" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V28" t="s">
-        <v>29</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
         <v>1330</v>
       </c>
-      <c r="D29" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1333</v>
-      </c>
       <c r="I29" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J29" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>1482</v>
       </c>
       <c r="N29" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O29" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P29" t="s">
-        <v>29</v>
+        <v>1519</v>
       </c>
       <c r="Q29" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R29" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>1561</v>
       </c>
       <c r="T29" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U29" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V29" t="s">
-        <v>29</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
         <v>1330</v>
       </c>
-      <c r="D30" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1333</v>
-      </c>
       <c r="I30" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J30" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>1483</v>
       </c>
       <c r="N30" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P30" t="s">
-        <v>29</v>
+        <v>1520</v>
       </c>
       <c r="Q30" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R30" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S30" t="s">
-        <v>29</v>
+        <v>1562</v>
       </c>
       <c r="T30" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U30" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V30" t="s">
-        <v>29</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
         <v>1330</v>
       </c>
-      <c r="D31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1333</v>
-      </c>
       <c r="I31" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J31" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>1484</v>
       </c>
       <c r="N31" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O31" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P31" t="s">
-        <v>29</v>
+        <v>1521</v>
       </c>
       <c r="Q31" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R31" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S31" t="s">
-        <v>29</v>
+        <v>1563</v>
       </c>
       <c r="T31" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U31" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V31" t="s">
-        <v>29</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
         <v>1330</v>
       </c>
-      <c r="D32" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1333</v>
-      </c>
       <c r="I32" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J32" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>1485</v>
       </c>
       <c r="N32" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O32" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P32" t="s">
-        <v>29</v>
+        <v>1522</v>
       </c>
       <c r="Q32" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R32" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S32" t="s">
-        <v>29</v>
+        <v>1564</v>
       </c>
       <c r="T32" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U32" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V32" t="s">
-        <v>29</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
         <v>1330</v>
       </c>
-      <c r="D33" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1333</v>
-      </c>
       <c r="I33" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J33" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L33" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>1486</v>
       </c>
       <c r="N33" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O33" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P33" t="s">
-        <v>29</v>
+        <v>1523</v>
       </c>
       <c r="Q33" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R33" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S33" t="s">
-        <v>29</v>
+        <v>1565</v>
       </c>
       <c r="T33" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U33" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V33" t="s">
-        <v>29</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
         <v>1330</v>
       </c>
-      <c r="D34" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1333</v>
-      </c>
       <c r="I34" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J34" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>1487</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P34" t="s">
-        <v>29</v>
+        <v>1524</v>
       </c>
       <c r="Q34" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R34" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S34" t="s">
-        <v>29</v>
+        <v>1566</v>
       </c>
       <c r="T34" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U34" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V34" t="s">
-        <v>29</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
         <v>1330</v>
       </c>
-      <c r="D35" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1333</v>
-      </c>
       <c r="I35" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="J35" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
+        <v>1401</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>1456</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>1488</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
+        <v>1409</v>
       </c>
       <c r="O35" t="s">
-        <v>29</v>
+        <v>1445</v>
       </c>
       <c r="P35" t="s">
-        <v>29</v>
+        <v>1525</v>
       </c>
       <c r="Q35" t="s">
-        <v>29</v>
+        <v>1392</v>
       </c>
       <c r="R35" t="s">
-        <v>29</v>
+        <v>1439</v>
       </c>
       <c r="S35" t="s">
-        <v>29</v>
+        <v>1567</v>
       </c>
       <c r="T35" t="s">
-        <v>29</v>
+        <v>1420</v>
       </c>
       <c r="U35" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="V35" t="s">
-        <v>29</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -33195,66 +33887,66 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I36" t="s">
         <v>1356</v>
       </c>
-      <c r="E36" t="s">
+      <c r="J36" t="s">
         <v>1357</v>
       </c>
-      <c r="F36" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1359</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1360</v>
-      </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O36" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P36" t="s">
-        <v>29</v>
+        <v>1526</v>
       </c>
       <c r="Q36" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R36" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S36" t="s">
-        <v>29</v>
+        <v>1568</v>
       </c>
       <c r="T36" t="s">
-        <v>29</v>
+        <v>1421</v>
       </c>
       <c r="U36" t="s">
-        <v>29</v>
+        <v>1430</v>
       </c>
       <c r="V36" t="s">
-        <v>29</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -33263,66 +33955,66 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I37" t="s">
         <v>1356</v>
       </c>
-      <c r="E37" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>1359</v>
       </c>
-      <c r="J37" t="s">
-        <v>1362</v>
-      </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>1489</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O37" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P37" t="s">
-        <v>29</v>
+        <v>1527</v>
       </c>
       <c r="Q37" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R37" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S37" t="s">
-        <v>29</v>
+        <v>1569</v>
       </c>
       <c r="T37" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U37" t="s">
-        <v>29</v>
+        <v>1431</v>
       </c>
       <c r="V37" t="s">
-        <v>29</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -33331,66 +34023,66 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I38" t="s">
         <v>1356</v>
       </c>
-      <c r="E38" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1359</v>
-      </c>
       <c r="J38" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O38" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P38" t="s">
-        <v>29</v>
+        <v>1528</v>
       </c>
       <c r="Q38" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R38" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S38" t="s">
-        <v>29</v>
+        <v>1570</v>
       </c>
       <c r="T38" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U38" t="s">
-        <v>29</v>
+        <v>1431</v>
       </c>
       <c r="V38" t="s">
-        <v>29</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -33399,66 +34091,66 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I39" t="s">
         <v>1356</v>
       </c>
-      <c r="E39" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1359</v>
-      </c>
       <c r="J39" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>1491</v>
       </c>
       <c r="N39" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O39" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P39" t="s">
-        <v>29</v>
+        <v>1529</v>
       </c>
       <c r="Q39" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R39" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S39" t="s">
-        <v>29</v>
+        <v>1571</v>
       </c>
       <c r="T39" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U39" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V39" t="s">
-        <v>29</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -33467,66 +34159,66 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I40" t="s">
         <v>1356</v>
       </c>
-      <c r="E40" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1359</v>
-      </c>
       <c r="J40" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M40" t="s">
-        <v>29</v>
+        <v>1492</v>
       </c>
       <c r="N40" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O40" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P40" t="s">
-        <v>29</v>
+        <v>1530</v>
       </c>
       <c r="Q40" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R40" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S40" t="s">
-        <v>29</v>
+        <v>1572</v>
       </c>
       <c r="T40" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U40" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V40" t="s">
-        <v>29</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -33535,66 +34227,66 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I41" t="s">
         <v>1356</v>
       </c>
-      <c r="E41" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1359</v>
-      </c>
       <c r="J41" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>1493</v>
       </c>
       <c r="N41" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O41" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P41" t="s">
-        <v>29</v>
+        <v>1531</v>
       </c>
       <c r="Q41" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R41" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S41" t="s">
-        <v>29</v>
+        <v>1573</v>
       </c>
       <c r="T41" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U41" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V41" t="s">
-        <v>29</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -33603,66 +34295,66 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I42" t="s">
         <v>1356</v>
       </c>
-      <c r="E42" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1359</v>
-      </c>
       <c r="J42" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>1494</v>
       </c>
       <c r="N42" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O42" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P42" t="s">
-        <v>29</v>
+        <v>1532</v>
       </c>
       <c r="Q42" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R42" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S42" t="s">
-        <v>29</v>
+        <v>1574</v>
       </c>
       <c r="T42" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U42" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V42" t="s">
-        <v>29</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -33671,66 +34363,66 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I43" t="s">
         <v>1356</v>
       </c>
-      <c r="E43" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1359</v>
-      </c>
       <c r="J43" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="K43" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L43" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>1495</v>
       </c>
       <c r="N43" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O43" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P43" t="s">
-        <v>29</v>
+        <v>1533</v>
       </c>
       <c r="Q43" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R43" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S43" t="s">
-        <v>29</v>
+        <v>1575</v>
       </c>
       <c r="T43" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U43" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V43" t="s">
-        <v>29</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -33739,66 +34431,66 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I44" t="s">
         <v>1356</v>
       </c>
-      <c r="E44" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1359</v>
-      </c>
       <c r="J44" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>1496</v>
       </c>
       <c r="N44" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O44" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P44" t="s">
-        <v>29</v>
+        <v>1534</v>
       </c>
       <c r="Q44" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R44" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S44" t="s">
-        <v>29</v>
+        <v>1576</v>
       </c>
       <c r="T44" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U44" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V44" t="s">
-        <v>29</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -33807,66 +34499,66 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I45" t="s">
         <v>1356</v>
       </c>
-      <c r="E45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1359</v>
-      </c>
       <c r="J45" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L45" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M45" t="s">
-        <v>29</v>
+        <v>1497</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O45" t="s">
-        <v>29</v>
+        <v>1446</v>
       </c>
       <c r="P45" t="s">
-        <v>29</v>
+        <v>1535</v>
       </c>
       <c r="Q45" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R45" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S45" t="s">
-        <v>29</v>
+        <v>1577</v>
       </c>
       <c r="T45" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U45" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V45" t="s">
-        <v>29</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -33875,66 +34567,66 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I46" t="s">
         <v>1356</v>
       </c>
-      <c r="E46" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1359</v>
-      </c>
       <c r="J46" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>1402</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
+        <v>1457</v>
       </c>
       <c r="M46" t="s">
-        <v>29</v>
+        <v>1498</v>
       </c>
       <c r="N46" t="s">
-        <v>29</v>
+        <v>1410</v>
       </c>
       <c r="O46" t="s">
-        <v>29</v>
+        <v>1447</v>
       </c>
       <c r="P46" t="s">
-        <v>29</v>
+        <v>1536</v>
       </c>
       <c r="Q46" t="s">
-        <v>29</v>
+        <v>1393</v>
       </c>
       <c r="R46" t="s">
-        <v>29</v>
+        <v>1440</v>
       </c>
       <c r="S46" t="s">
-        <v>29</v>
+        <v>1578</v>
       </c>
       <c r="T46" t="s">
-        <v>29</v>
+        <v>1422</v>
       </c>
       <c r="U46" t="s">
-        <v>29</v>
+        <v>1432</v>
       </c>
       <c r="V46" t="s">
-        <v>29</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -33949,60 +34641,60 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="I47" t="s">
         <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="K47" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="L47" t="s">
-        <v>1382</v>
+        <v>1458</v>
       </c>
       <c r="M47" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="N47" t="s">
-        <v>1382</v>
+        <v>1410</v>
       </c>
       <c r="O47" t="s">
-        <v>1382</v>
+        <v>1447</v>
       </c>
       <c r="P47" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="Q47" t="s">
-        <v>1382</v>
+        <v>1393</v>
       </c>
       <c r="R47" t="s">
-        <v>1382</v>
+        <v>1441</v>
       </c>
       <c r="S47" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="T47" t="s">
-        <v>1382</v>
+        <v>1422</v>
       </c>
       <c r="U47" t="s">
-        <v>1382</v>
+        <v>1433</v>
       </c>
       <c r="V47" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -34017,66 +34709,66 @@
         <v>1000</v>
       </c>
       <c r="F48" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="I48" t="s">
         <v>9</v>
       </c>
       <c r="J48" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="K48" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="L48" t="s">
-        <v>1382</v>
+        <v>1458</v>
       </c>
       <c r="M48" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="N48" t="s">
-        <v>1382</v>
+        <v>1410</v>
       </c>
       <c r="O48" t="s">
-        <v>1382</v>
+        <v>1447</v>
       </c>
       <c r="P48" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="Q48" t="s">
-        <v>1382</v>
+        <v>1393</v>
       </c>
       <c r="R48" t="s">
-        <v>1382</v>
+        <v>1441</v>
       </c>
       <c r="S48" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="T48" t="s">
-        <v>1382</v>
+        <v>1422</v>
       </c>
       <c r="U48" t="s">
-        <v>1382</v>
+        <v>1433</v>
       </c>
       <c r="V48" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -34085,66 +34777,66 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
       </c>
       <c r="H49" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I49" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="J49" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="K49" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="L49" t="s">
-        <v>1382</v>
+        <v>1459</v>
       </c>
       <c r="M49" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="N49" t="s">
-        <v>1382</v>
+        <v>1409</v>
       </c>
       <c r="O49" t="s">
-        <v>1382</v>
+        <v>1409</v>
       </c>
       <c r="P49" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="Q49" t="s">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="R49" t="s">
-        <v>1382</v>
+        <v>1442</v>
       </c>
       <c r="S49" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="T49" t="s">
-        <v>1382</v>
+        <v>1420</v>
       </c>
       <c r="U49" t="s">
-        <v>1382</v>
+        <v>1427</v>
       </c>
       <c r="V49" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -34153,55 +34845,55 @@
         <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I50" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="J50" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="K50" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="L50" t="s">
-        <v>1382</v>
+        <v>1459</v>
       </c>
       <c r="M50" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="N50" t="s">
-        <v>1382</v>
+        <v>1409</v>
       </c>
       <c r="O50" t="s">
-        <v>1382</v>
+        <v>1409</v>
       </c>
       <c r="P50" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="Q50" t="s">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="R50" t="s">
-        <v>1382</v>
+        <v>1442</v>
       </c>
       <c r="S50" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="T50" t="s">
-        <v>1382</v>
+        <v>1420</v>
       </c>
       <c r="U50" t="s">
-        <v>1382</v>
+        <v>1427</v>
       </c>
       <c r="V50" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
   </sheetData>

--- a/models/SCSM.xlsx
+++ b/models/SCSM.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="interface" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="dataSCSM" localSheetId="0">data!$A$1:$S$444</definedName>
-    <definedName name="interfaceSCSM" localSheetId="1">interface!$A$1:$S$50</definedName>
+    <definedName name="interfaceSCSM" localSheetId="1">interface!$A$1:$S$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7218" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7218" uniqueCount="1615">
   <si>
     <t>numberinit</t>
   </si>
@@ -3969,9 +3970,6 @@
     <t>effecttrait</t>
   </si>
   <si>
-    <t>1.1.1.1 Cultivated terrestrial plants (including fungi, algae) grown for nutritional purposes</t>
-  </si>
-  <si>
     <t>anyutility</t>
   </si>
   <si>
@@ -3996,24 +3994,15 @@
     <t>Timber</t>
   </si>
   <si>
-    <t>production of feed or fodder</t>
-  </si>
-  <si>
     <t>Feed or fodder</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.1.3 Cultivated plants (including fungi, algae) grown as a source of  energy </t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Biomass</t>
   </si>
   <si>
-    <t>2.2.6.2 Regulation of temperature and humidity, including ventilation and transpiration</t>
-  </si>
-  <si>
     <t>shade</t>
   </si>
   <si>
@@ -4023,18 +4012,12 @@
     <t>Shade</t>
   </si>
   <si>
-    <t>SoilFertility</t>
-  </si>
-  <si>
     <t>Soil Fertility</t>
   </si>
   <si>
     <t>Nitrogen</t>
   </si>
   <si>
-    <t>1.1.1.2 Fibres and other materials from cultivated plants, fungi, algae and bacteria for direct use or processing  (excluding genetic materials)</t>
-  </si>
-  <si>
     <t>Fibres and other materials</t>
   </si>
   <si>
@@ -4927,6 +4910,9 @@
   </si>
   <si>
     <t>více než 1000 let</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
 </sst>
 </file>
@@ -5254,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T444"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35034,17 +35020,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="M22" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="7" width="6.77734375" customWidth="1"/>
     <col min="8" max="19" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35107,13 +35094,13 @@
         <v>1291</v>
       </c>
       <c r="T1" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="U1" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="V1" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -35148,40 +35135,40 @@
         <v>1296</v>
       </c>
       <c r="K2" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="L2" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="M2" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="N2" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="O2" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="P2" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="Q2" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="R2" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="S2" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="T2" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="U2" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="V2" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -35216,40 +35203,40 @@
         <v>1298</v>
       </c>
       <c r="K3" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="L3" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="M3" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="N3" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="O3" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="P3" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="Q3" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="R3" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="S3" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="T3" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="U3" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="V3" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -35260,64 +35247,64 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1300</v>
+        <v>1614</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F4" t="s">
         <v>1301</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>1302</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>1303</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1304</v>
       </c>
-      <c r="J4" t="s">
-        <v>1305</v>
-      </c>
       <c r="K4" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="L4" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="M4" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="N4" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="O4" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P4" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="Q4" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="R4" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="S4" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="T4" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="U4" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="V4" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -35328,7 +35315,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1300</v>
+        <v>1614</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -35337,55 +35324,55 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>1302</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>1303</v>
       </c>
-      <c r="I5" t="s">
-        <v>1304</v>
-      </c>
       <c r="J5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="K5" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="L5" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M5" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="N5" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="O5" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P5" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="Q5" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="R5" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S5" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="T5" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="U5" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="V5" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -35396,7 +35383,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1300</v>
+        <v>1614</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -35405,55 +35392,55 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
         <v>1302</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>1303</v>
       </c>
-      <c r="I6" t="s">
-        <v>1304</v>
-      </c>
       <c r="J6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K6" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="L6" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M6" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="N6" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="O6" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P6" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="Q6" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="R6" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S6" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="T6" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="U6" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="V6" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -35464,7 +35451,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>1614</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -35473,55 +35460,55 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K7" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="L7" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M7" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="N7" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="O7" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P7" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="Q7" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="R7" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S7" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="T7" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="U7" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V7" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -35532,7 +35519,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1309</v>
+        <v>1614</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -35541,55 +35528,55 @@
         <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="K8" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="L8" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="M8" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="N8" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="O8" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P8" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="Q8" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="R8" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="S8" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="T8" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="U8" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V8" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -35600,7 +35587,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1311</v>
+        <v>1614</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -35609,55 +35596,55 @@
         <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J9" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="K9" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="L9" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M9" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="N9" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="O9" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P9" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="Q9" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="R9" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S9" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="T9" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="U9" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V9" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -35668,64 +35655,64 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>1314</v>
+        <v>1614</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J10" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="K10" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="L10" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M10" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="N10" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="O10" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P10" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="Q10" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="R10" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S10" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="T10" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="U10" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V10" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -35736,7 +35723,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1318</v>
+        <v>1614</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -35745,55 +35732,55 @@
         <v>651</v>
       </c>
       <c r="F11" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="I11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J11" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="K11" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="L11" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M11" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="N11" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="O11" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P11" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="Q11" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="R11" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S11" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="T11" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="U11" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V11" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -35804,7 +35791,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1321</v>
+        <v>1614</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -35813,55 +35800,55 @@
         <v>916</v>
       </c>
       <c r="F12" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="I12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J12" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="K12" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="L12" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M12" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="N12" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="O12" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P12" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="Q12" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="R12" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S12" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="T12" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="U12" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V12" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -35872,7 +35859,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1321</v>
+        <v>1614</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -35881,55 +35868,55 @@
         <v>905</v>
       </c>
       <c r="F13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="I13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J13" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="K13" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="L13" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M13" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="N13" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="O13" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P13" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="R13" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S13" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="T13" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="U13" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V13" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -35940,7 +35927,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1300</v>
+        <v>1614</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -35949,55 +35936,55 @@
         <v>1268</v>
       </c>
       <c r="F14" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
         <v>1302</v>
       </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>1303</v>
       </c>
-      <c r="I14" t="s">
-        <v>1304</v>
-      </c>
       <c r="J14" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="K14" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="L14" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M14" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="N14" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="O14" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P14" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="Q14" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="R14" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S14" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="T14" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="U14" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V14" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -36008,7 +35995,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>1321</v>
+        <v>1614</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -36017,55 +36004,55 @@
         <v>1090</v>
       </c>
       <c r="F15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="I15" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J15" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="K15" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="L15" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="M15" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="N15" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="O15" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="P15" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="Q15" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="R15" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="S15" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="T15" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="U15" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="V15" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -36076,64 +36063,64 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="F16" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I16" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J16" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="K16" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L16" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M16" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="N16" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O16" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P16" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="Q16" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R16" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S16" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="T16" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U16" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V16" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -36144,7 +36131,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -36153,55 +36140,55 @@
         <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I17" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J17" t="s">
         <v>210</v>
       </c>
       <c r="K17" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L17" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M17" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="N17" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O17" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P17" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="Q17" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R17" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S17" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="T17" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U17" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V17" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -36212,7 +36199,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -36221,55 +36208,55 @@
         <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I18" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J18" t="s">
         <v>230</v>
       </c>
       <c r="K18" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L18" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M18" t="s">
         <v>230</v>
       </c>
       <c r="N18" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O18" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P18" t="s">
         <v>230</v>
       </c>
       <c r="Q18" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R18" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S18" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="T18" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U18" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V18" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -36280,7 +36267,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -36289,55 +36276,55 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I19" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L19" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M19" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="N19" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O19" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P19" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="Q19" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R19" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S19" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="T19" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U19" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V19" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -36348,7 +36335,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -36357,55 +36344,55 @@
         <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I20" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J20" t="s">
         <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L20" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="M20" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="N20" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O20" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P20" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="Q20" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R20" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S20" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="T20" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U20" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V20" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -36416,7 +36403,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -36425,55 +36412,55 @@
         <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I21" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J21" t="s">
         <v>77</v>
       </c>
       <c r="K21" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L21" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M21" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="N21" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O21" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P21" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="Q21" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R21" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S21" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="T21" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U21" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V21" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -36484,7 +36471,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -36493,55 +36480,55 @@
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I22" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J22" t="s">
         <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L22" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M22" t="s">
         <v>56</v>
       </c>
       <c r="N22" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O22" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P22" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="Q22" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R22" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S22" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="T22" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U22" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V22" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -36552,7 +36539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -36561,55 +36548,55 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I23" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J23" t="s">
         <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L23" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M23" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="N23" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O23" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P23" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="Q23" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R23" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S23" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="T23" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U23" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V23" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -36620,7 +36607,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -36629,55 +36616,55 @@
         <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I24" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J24" t="s">
         <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L24" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M24" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="N24" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O24" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P24" t="s">
         <v>168</v>
       </c>
       <c r="Q24" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R24" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S24" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="T24" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U24" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V24" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -36688,7 +36675,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -36697,55 +36684,55 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I25" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J25" t="s">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L25" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="M25" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="N25" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O25" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P25" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="Q25" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R25" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S25" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="T25" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U25" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V25" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -36756,7 +36743,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -36765,55 +36752,55 @@
         <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="J26" t="s">
         <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L26" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="M26" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="N26" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O26" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="P26" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="Q26" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R26" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="S26" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="T26" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U26" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="V26" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -36821,67 +36808,67 @@
         <v>1299</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>1327</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1334</v>
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>1329</v>
+        <v>1372</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>1330</v>
+        <v>1349</v>
       </c>
       <c r="I27" t="s">
-        <v>1335</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
-        <v>1336</v>
+        <v>1373</v>
       </c>
       <c r="K27" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="L27" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="M27" t="s">
-        <v>1480</v>
+        <v>1373</v>
       </c>
       <c r="N27" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="O27" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="P27" t="s">
-        <v>1517</v>
+        <v>1373</v>
       </c>
       <c r="Q27" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="R27" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="S27" t="s">
-        <v>1559</v>
+        <v>1373</v>
       </c>
       <c r="T27" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="U27" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="V27" t="s">
-        <v>1600</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -36889,67 +36876,67 @@
         <v>1299</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>1327</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1337</v>
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>1329</v>
+        <v>1372</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>1330</v>
+        <v>1349</v>
       </c>
       <c r="I28" t="s">
-        <v>1335</v>
+        <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>1338</v>
+        <v>1373</v>
       </c>
       <c r="K28" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="L28" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="M28" t="s">
-        <v>1481</v>
+        <v>1373</v>
       </c>
       <c r="N28" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="O28" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="P28" t="s">
-        <v>1518</v>
+        <v>1373</v>
       </c>
       <c r="Q28" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="R28" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="S28" t="s">
-        <v>1560</v>
+        <v>1373</v>
       </c>
       <c r="T28" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="U28" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="V28" t="s">
-        <v>1601</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -36960,64 +36947,64 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D29" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1339</v>
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>1329</v>
+        <v>1372</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="I29" t="s">
-        <v>1335</v>
+        <v>1374</v>
       </c>
       <c r="J29" t="s">
-        <v>1340</v>
+        <v>1373</v>
       </c>
       <c r="K29" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="L29" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="M29" t="s">
-        <v>1482</v>
+        <v>1373</v>
       </c>
       <c r="N29" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O29" t="s">
-        <v>1445</v>
+        <v>1403</v>
       </c>
       <c r="P29" t="s">
-        <v>1519</v>
+        <v>1373</v>
       </c>
       <c r="Q29" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="R29" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="S29" t="s">
-        <v>1561</v>
+        <v>1373</v>
       </c>
       <c r="T29" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="U29" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="V29" t="s">
-        <v>1602</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -37028,1424 +37015,1439 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1403</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1373</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1421</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1" t="s">
         <v>1327</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E3" t="s">
         <v>1333</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E7" t="s">
         <v>1341</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I7" t="s">
         <v>1329</v>
       </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="J7" t="s">
         <v>1342</v>
       </c>
-      <c r="K30" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L30" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="K7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1518</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1560</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M11" t="s">
         <v>1483</v>
       </c>
-      <c r="N30" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1445</v>
-      </c>
-      <c r="P30" t="s">
-        <v>1520</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R30" t="s">
-        <v>1439</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1562</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U30" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V30" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="N11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>1299</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1344</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M12" t="s">
         <v>1484</v>
       </c>
-      <c r="N31" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1445</v>
-      </c>
-      <c r="P31" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R31" t="s">
-        <v>1439</v>
-      </c>
-      <c r="S31" t="s">
-        <v>1563</v>
-      </c>
-      <c r="T31" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U31" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V31" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="N12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1564</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>1299</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1346</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M13" t="s">
         <v>1485</v>
       </c>
-      <c r="N32" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1445</v>
-      </c>
-      <c r="P32" t="s">
-        <v>1522</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R32" t="s">
-        <v>1439</v>
-      </c>
-      <c r="S32" t="s">
-        <v>1564</v>
-      </c>
-      <c r="T32" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U32" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V32" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="N13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1565</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>1299</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>1347</v>
       </c>
-      <c r="F33" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L33" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="E14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M14" t="s">
         <v>1486</v>
       </c>
-      <c r="N33" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1445</v>
-      </c>
-      <c r="P33" t="s">
-        <v>1523</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R33" t="s">
-        <v>1439</v>
-      </c>
-      <c r="S33" t="s">
-        <v>1565</v>
-      </c>
-      <c r="T33" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U33" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V33" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="N14" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>1299</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
         <v>1349</v>
       </c>
-      <c r="F34" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I15" t="s">
         <v>1350</v>
       </c>
-      <c r="K34" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="J15" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M15" t="s">
         <v>1487</v>
       </c>
-      <c r="N34" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="P34" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1439</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1566</v>
-      </c>
-      <c r="T34" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U34" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V34" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="N15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1525</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>1299</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L35" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M16" t="s">
         <v>1488</v>
       </c>
-      <c r="N35" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1445</v>
-      </c>
-      <c r="P35" t="s">
-        <v>1525</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R35" t="s">
-        <v>1439</v>
-      </c>
-      <c r="S35" t="s">
-        <v>1567</v>
-      </c>
-      <c r="T35" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U35" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V35" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="N16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1568</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>1299</v>
       </c>
-      <c r="B36">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1357</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1402</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P36" t="s">
-        <v>1526</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="D17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O17" t="s">
         <v>1440</v>
       </c>
-      <c r="S36" t="s">
-        <v>1568</v>
-      </c>
-      <c r="T36" t="s">
-        <v>1421</v>
-      </c>
-      <c r="U36" t="s">
-        <v>1430</v>
-      </c>
-      <c r="V36" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="P17" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1569</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>1299</v>
       </c>
-      <c r="B37">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1359</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P37" t="s">
-        <v>1527</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="D18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O18" t="s">
         <v>1440</v>
       </c>
-      <c r="S37" t="s">
-        <v>1569</v>
-      </c>
-      <c r="T37" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U37" t="s">
-        <v>1431</v>
-      </c>
-      <c r="V37" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="P18" t="s">
+        <v>1528</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1570</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>1299</v>
       </c>
-      <c r="B38">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L38" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1490</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P38" t="s">
-        <v>1528</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="D19" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1491</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O19" t="s">
         <v>1440</v>
       </c>
-      <c r="S38" t="s">
-        <v>1570</v>
-      </c>
-      <c r="T38" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U38" t="s">
-        <v>1431</v>
-      </c>
-      <c r="V38" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="P19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1571</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>1299</v>
       </c>
-      <c r="B39">
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1491</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P39" t="s">
-        <v>1529</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R39" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S39" t="s">
-        <v>1571</v>
-      </c>
-      <c r="T39" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U39" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V39" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1365</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="D20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M20" t="s">
         <v>1492</v>
       </c>
-      <c r="N40" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O40" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="N20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1441</v>
+      </c>
+      <c r="P20" t="s">
         <v>1530</v>
       </c>
-      <c r="Q40" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R40" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="Q20" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="S20" t="s">
         <v>1572</v>
       </c>
-      <c r="T40" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U40" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="T20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V20" t="s">
         <v>1613</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1367</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L41" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1493</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P41" t="s">
-        <v>1531</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R41" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S41" t="s">
-        <v>1573</v>
-      </c>
-      <c r="T41" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U41" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V41" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1369</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L42" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1494</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O42" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P42" t="s">
-        <v>1532</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R42" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S42" t="s">
-        <v>1574</v>
-      </c>
-      <c r="T42" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U42" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V42" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1371</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1495</v>
-      </c>
-      <c r="N43" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O43" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P43" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R43" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S43" t="s">
-        <v>1575</v>
-      </c>
-      <c r="T43" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U43" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V43" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1373</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1496</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P44" t="s">
-        <v>1534</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R44" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S44" t="s">
-        <v>1576</v>
-      </c>
-      <c r="T44" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U44" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V44" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1497</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P45" t="s">
-        <v>1535</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R45" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S45" t="s">
-        <v>1577</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U45" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V45" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1377</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L46" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M46" t="s">
-        <v>1498</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P46" t="s">
-        <v>1536</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R46" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S46" t="s">
-        <v>1578</v>
-      </c>
-      <c r="T46" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U46" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V46" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L47" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M47" t="s">
-        <v>1379</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O47" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P47" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R47" t="s">
-        <v>1441</v>
-      </c>
-      <c r="S47" t="s">
-        <v>1379</v>
-      </c>
-      <c r="T47" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U47" t="s">
-        <v>1433</v>
-      </c>
-      <c r="V47" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>1000</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I48" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L48" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1379</v>
-      </c>
-      <c r="N48" t="s">
-        <v>1410</v>
-      </c>
-      <c r="O48" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P48" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R48" t="s">
-        <v>1441</v>
-      </c>
-      <c r="S48" t="s">
-        <v>1379</v>
-      </c>
-      <c r="T48" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U48" t="s">
-        <v>1433</v>
-      </c>
-      <c r="V48" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1380</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L49" t="s">
-        <v>1459</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1379</v>
-      </c>
-      <c r="N49" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O49" t="s">
-        <v>1409</v>
-      </c>
-      <c r="P49" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R49" t="s">
-        <v>1442</v>
-      </c>
-      <c r="S49" t="s">
-        <v>1379</v>
-      </c>
-      <c r="T49" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U49" t="s">
-        <v>1427</v>
-      </c>
-      <c r="V49" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1380</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K50" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L50" t="s">
-        <v>1459</v>
-      </c>
-      <c r="M50" t="s">
-        <v>1379</v>
-      </c>
-      <c r="N50" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O50" t="s">
-        <v>1409</v>
-      </c>
-      <c r="P50" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>1392</v>
-      </c>
-      <c r="R50" t="s">
-        <v>1442</v>
-      </c>
-      <c r="S50" t="s">
-        <v>1379</v>
-      </c>
-      <c r="T50" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U50" t="s">
-        <v>1427</v>
-      </c>
-      <c r="V50" t="s">
-        <v>1379</v>
       </c>
     </row>
   </sheetData>
